--- a/biology/Botanique/Siparuna_guianensis/Siparuna_guianensis.xlsx
+++ b/biology/Botanique/Siparuna_guianensis/Siparuna_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Siparuna guianensis est une espèce néotropicale d'arbuste appartenant à la famille des Siparunaceae (ou anciennement des Monimiaceae selon Cronquist). 
-Siparuna guianensis Aubl. est l'espèce type du genre Siparuna Aubl.[3].
-En Guyane, on appelle cette plante vénéré, viniré (Créole), enẽmɨ'o, wainɨmɨ'o (Wayãpi), yariwapna (Palikur), kapasi wiwii (Aluku) ou capitiú, caá-pitiú (Portugais)[4]. Il est aussi appelé hierba de pasmo au Panama[5], Bogwood au Guyana et erva-de-rato ou catingueira-de-paca au Brésil.
+Siparuna guianensis Aubl. est l'espèce type du genre Siparuna Aubl..
+En Guyane, on appelle cette plante vénéré, viniré (Créole), enẽmɨ'o, wainɨmɨ'o (Wayãpi), yariwapna (Palikur), kapasi wiwii (Aluku) ou capitiú, caá-pitiú (Portugais). Il est aussi appelé hierba de pasmo au Panama, Bogwood au Guyana et erva-de-rato ou catingueira-de-paca au Brésil.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Siparuna guianensis du Brésil au Costa Rica en passant par le Pérou la Colombie et les Guyanes[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Siparuna guianensis du Brésil au Costa Rica en passant par le Pérou la Colombie et les Guyanes. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Siparuna guianensis est un arbre ou arbuste aromatique (huile essentielle), monoïque atteignant jusqu'à 20 m de hauteur. Ses branches sont cylindriques ou légèrement aplaties, rougeâtre à brun verdâtre, tomenteuses ou glabrescentes. Les feuilles sont opposées, pergaminées, principalement strigilleuses apprimées et glabrescentes au-dessus, et à pubescence étoilée, voire glabrescentes en dessous. Les limbes sont entiers, oblongs à elliptiques, apicalement aigus à longuement acuminés, cunéiformes à base à tronquée, généralement symétriques, long de 5-25 cm pour 3-10 cm de large, avec 7 à 11 nervures latérales de chaque côté de la nervure principale. Les pétioles mesurent  5-10(-15) mm de long. Les inflorescences staminées (comportant une partie mâles) sont hermaphrodites ou unisexuées, composées de 2-4 (jusqu'à 21) cymes fleuries à l'aisselle de chaque feuille. Elles sont de couleur jaune et portent une pubescence étoilée partout. Les pédicelles sont longs de 3 mm. On compte 4-6 tépales, deltoïdes à hémisphériques. On compte (8-)10-14 étamines. Les inflorescences carpellées (comportant une partie femelle) sont semblables aux inflorescences mâle. Les fruits rosés globuleux, regroupés en agrégats, mesurent 8-14 mm de longs, et autant de large. À maturité, les fruits éclatent de façon irrégulière, exposant quelques graines grisâtres tuberculées dans une masse charnue jaunâtre[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siparuna guianensis est un arbre ou arbuste aromatique (huile essentielle), monoïque atteignant jusqu'à 20 m de hauteur. Ses branches sont cylindriques ou légèrement aplaties, rougeâtre à brun verdâtre, tomenteuses ou glabrescentes. Les feuilles sont opposées, pergaminées, principalement strigilleuses apprimées et glabrescentes au-dessus, et à pubescence étoilée, voire glabrescentes en dessous. Les limbes sont entiers, oblongs à elliptiques, apicalement aigus à longuement acuminés, cunéiformes à base à tronquée, généralement symétriques, long de 5-25 cm pour 3-10 cm de large, avec 7 à 11 nervures latérales de chaque côté de la nervure principale. Les pétioles mesurent  5-10(-15) mm de long. Les inflorescences staminées (comportant une partie mâles) sont hermaphrodites ou unisexuées, composées de 2-4 (jusqu'à 21) cymes fleuries à l'aisselle de chaque feuille. Elles sont de couleur jaune et portent une pubescence étoilée partout. Les pédicelles sont longs de 3 mm. On compte 4-6 tépales, deltoïdes à hémisphériques. On compte (8-)10-14 étamines. Les inflorescences carpellées (comportant une partie femelle) sont semblables aux inflorescences mâle. Les fruits rosés globuleux, regroupés en agrégats, mesurent 8-14 mm de longs, et autant de large. À maturité, les fruits éclatent de façon irrégulière, exposant quelques graines grisâtres tuberculées dans une masse charnue jaunâtre.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre Siparuna guianensis dans les lisières, les sous-bois et les zones de régénération forestière. Contenant un arille sucré, ses fruits sont zoochores. 
-On a pu montrer que les oiseaux Antilophia galeata, Antilophia galeata, Lanio penicillatus et Dacnis cayana sont parmi les principaux disséminateurs de ses graines dans la région du Cerrado brésilien[6].
+On a pu montrer que les oiseaux Antilophia galeata, Antilophia galeata, Lanio penicillatus et Dacnis cayana sont parmi les principaux disséminateurs de ses graines dans la région du Cerrado brésilien.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Siparuna guianensis et les espèces proches sont des plantes médicinales réputées chez les populations rurales et amérindiennes d'Amazonie. Souvent présentes sur les marchés, elles sont vendues pour leurs propriétés vulnéraires, cicatrisantes, carminatives, excitantes et antispasmodiques, contre les douleurs d'estomac et comme déparasitant.
-En Guyane, les feuilles sont à l'origine d'une tisane créole considérée comme fébrifuge, abortive et ocytocique, hypotensive sous forme de décoction salée, tandis que leur macération dans l'alcool serait vulnéraire et réduirait les œdèmes. La décoction de l'écorce et des feuilles est bue et prise sous forme de bain comme anti-grippale, fébrifuge et "rafraichissante" d'après les Wayãpi et les Aluku du haut Maroni. Les feuilles entrent dans la composition de remèdes Palikurs contre les fractures, facilitant les accouchements, d'anti-inflammatoires sur les coups et d'insecticides anti-puces[4].
-Au Panama il est utilisé comme remède traditionnel contre les coliques et comme vermifuge pour la volaille[5].
+En Guyane, les feuilles sont à l'origine d'une tisane créole considérée comme fébrifuge, abortive et ocytocique, hypotensive sous forme de décoction salée, tandis que leur macération dans l'alcool serait vulnéraire et réduirait les œdèmes. La décoction de l'écorce et des feuilles est bue et prise sous forme de bain comme anti-grippale, fébrifuge et "rafraichissante" d'après les Wayãpi et les Aluku du haut Maroni. Les feuilles entrent dans la composition de remèdes Palikurs contre les fractures, facilitant les accouchements, d'anti-inflammatoires sur les coups et d'insecticides anti-puces.
+Au Panama il est utilisé comme remède traditionnel contre les coliques et comme vermifuge pour la volaille.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « SIPARUNA Guianensis. (Tabula 333.)
 Frutex humilis, ramos rectos emittens, sex vel octo-pedales, simplices. Folia opposita, glabra, subsessilia, ovato-oblonga, acuta. Flores axillares, virides, minimi, in exiguis corymbis; masculi cum ſemineis mixti.
 Floret Augusto.
